--- a/all_annotated/BGFV_Q2_2013_3.xlsx
+++ b/all_annotated/BGFV_Q2_2013_3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tmand\Desktop\CS\VIP\SubjECTive-QA\Tarun-annotations\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hp/Desktop/SubjECTive-QA/all_annotated/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96A0C048-B402-4CEA-8FF3-707694750698}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E00C212-F5F8-894F-B319-3596300479BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="35780" yWindow="-140" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="60">
   <si>
     <t>Asker</t>
   </si>
@@ -70,12 +70,6 @@
     <t>Well, it continues to be a work in progress. I do believe there is more work to be done. We're still consistently evaluating our product offering and looking to make improvements on an ongoing basis, certainly.</t>
   </si>
   <si>
-    <t>And then, secondly, the environment out there, I think, is certainly been a positive factor so far this year. Do you sense any change with that? Or does that continue to be sort of a secondary positive factor for you guys in terms of comps ability?</t>
-  </si>
-  <si>
-    <t>I'm not sure what -- when you say the environment, are you saying the economic environment? The weather environment? The competitive environment?</t>
-  </si>
-  <si>
     <t>The pace of macroeconomic recovery out there.</t>
   </si>
   <si>
@@ -182,9 +176,6 @@
   </si>
   <si>
     <t>I just have a question regarding the e-commerce business, that you will have up and running next year. Can you talk a little bit about the -- what you sort of envision as the ultimate profitability of that business? And whether there is a risk of cannibalization as well?</t>
-  </si>
-  <si>
-    <t>Did you say the ultimate profitability, David?</t>
   </si>
   <si>
     <t>We're certainly doing this in the belief that they'll be accretive to the profitability of the business. I think it's premature to try to quantify that. We think we're approaching at an intelligent fashion. We roll out in a manner that ultimately will lead to positive sales, accretive to sales without meaningful cannibalization to the business, and hopefully, we'll like creating an omni-channel, multiple ways for our consumers to interact with us, and it will be positive to our same-store sales.</t>
@@ -227,6 +218,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -571,15 +563,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J26"/>
+  <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M28" sqref="M28"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -611,7 +603,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -643,7 +635,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -675,7 +667,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -689,59 +681,59 @@
         <v>17</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
       <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>18</v>
-      </c>
-      <c r="D5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5">
-        <v>2</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="H5">
-        <v>2</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
@@ -753,7 +745,7 @@
         <v>22</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
         <v>2</v>
@@ -762,53 +754,53 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
         <v>26</v>
@@ -817,97 +809,97 @@
         <v>27</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J8">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B9" t="s">
         <v>11</v>
       </c>
       <c r="C9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>28</v>
       </c>
-      <c r="D9" t="s">
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
         <v>29</v>
       </c>
-      <c r="E9">
-        <v>2</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>2</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>31</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
         <v>32</v>
-      </c>
-      <c r="E10">
-        <v>2</v>
-      </c>
-      <c r="F10">
-        <v>2</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>1</v>
-      </c>
-      <c r="I10">
-        <v>1</v>
-      </c>
-      <c r="J10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" t="s">
-        <v>31</v>
       </c>
       <c r="D11" t="s">
         <v>33</v>
@@ -916,10 +908,10 @@
         <v>2</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11">
         <v>1</v>
@@ -931,9 +923,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B12" t="s">
         <v>11</v>
@@ -945,13 +937,13 @@
         <v>35</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H12">
         <v>1</v>
@@ -963,41 +955,41 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B13" t="s">
         <v>11</v>
       </c>
       <c r="C13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>2</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>36</v>
-      </c>
-      <c r="D13" t="s">
-        <v>37</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>2</v>
-      </c>
-      <c r="H13">
-        <v>1</v>
-      </c>
-      <c r="I13">
-        <v>1</v>
-      </c>
-      <c r="J13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>38</v>
       </c>
       <c r="B14" t="s">
         <v>11</v>
@@ -1027,9 +1019,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B15" t="s">
         <v>11</v>
@@ -1059,79 +1051,79 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B16" t="s">
         <v>11</v>
       </c>
       <c r="C16" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>2</v>
+      </c>
+      <c r="J16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>43</v>
       </c>
-      <c r="D16" t="s">
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" t="s">
         <v>44</v>
       </c>
-      <c r="E16">
-        <v>2</v>
-      </c>
-      <c r="F16">
-        <v>2</v>
-      </c>
-      <c r="G16">
-        <v>1</v>
-      </c>
-      <c r="H16">
-        <v>2</v>
-      </c>
-      <c r="I16">
-        <v>1</v>
-      </c>
-      <c r="J16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>45</v>
-      </c>
-      <c r="B17" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>46</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" t="s">
         <v>47</v>
-      </c>
-      <c r="E17">
-        <v>2</v>
-      </c>
-      <c r="F17">
-        <v>2</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>1</v>
-      </c>
-      <c r="I17">
-        <v>2</v>
-      </c>
-      <c r="J17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>45</v>
-      </c>
-      <c r="B18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" t="s">
-        <v>46</v>
       </c>
       <c r="D18" t="s">
         <v>48</v>
@@ -1140,27 +1132,27 @@
         <v>2</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18">
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C19" t="s">
         <v>49</v>
@@ -1172,27 +1164,27 @@
         <v>2</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19">
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="C20" t="s">
         <v>51</v>
@@ -1201,30 +1193,30 @@
         <v>52</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20">
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>10</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="C21" t="s">
         <v>53</v>
@@ -1233,13 +1225,13 @@
         <v>54</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G21">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H21">
         <v>1</v>
@@ -1248,15 +1240,15 @@
         <v>1</v>
       </c>
       <c r="J21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>10</v>
       </c>
       <c r="B22" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="C22" t="s">
         <v>53</v>
@@ -1265,27 +1257,27 @@
         <v>55</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22">
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="B23" t="s">
         <v>11</v>
@@ -1303,10 +1295,10 @@
         <v>2</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I23">
         <v>1</v>
@@ -1315,18 +1307,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="C24" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D24" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E24">
         <v>2</v>
@@ -1335,7 +1327,7 @@
         <v>2</v>
       </c>
       <c r="G24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H24">
         <v>1</v>
@@ -1344,70 +1336,6 @@
         <v>1</v>
       </c>
       <c r="J24">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>30</v>
-      </c>
-      <c r="B25" t="s">
-        <v>11</v>
-      </c>
-      <c r="C25" t="s">
-        <v>59</v>
-      </c>
-      <c r="D25" t="s">
-        <v>60</v>
-      </c>
-      <c r="E25">
-        <v>2</v>
-      </c>
-      <c r="F25">
-        <v>2</v>
-      </c>
-      <c r="G25">
-        <v>1</v>
-      </c>
-      <c r="H25">
-        <v>2</v>
-      </c>
-      <c r="I25">
-        <v>1</v>
-      </c>
-      <c r="J25">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>30</v>
-      </c>
-      <c r="B26" t="s">
-        <v>11</v>
-      </c>
-      <c r="C26" t="s">
-        <v>61</v>
-      </c>
-      <c r="D26" t="s">
-        <v>62</v>
-      </c>
-      <c r="E26">
-        <v>2</v>
-      </c>
-      <c r="F26">
-        <v>2</v>
-      </c>
-      <c r="G26">
-        <v>2</v>
-      </c>
-      <c r="H26">
-        <v>1</v>
-      </c>
-      <c r="I26">
-        <v>1</v>
-      </c>
-      <c r="J26">
         <v>2</v>
       </c>
     </row>
